--- a/Controle Transferencia.xlsx
+++ b/Controle Transferencia.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -850,7 +850,7 @@
       <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>45855</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -957,6 +957,117 @@
       <c r="W6" t="inlineStr">
         <is>
           <t>2025-07-17 15:57:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ert5678</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:42:59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:42:59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:43:01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:43:03</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:43:04</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:43:05</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:43:06</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0:00:02</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0:00:00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0:00:07</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:43:08</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:43:09</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:43:10</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:43:11</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0:00:04</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:43:07</t>
         </is>
       </c>
     </row>

--- a/Controle Transferencia.xlsx
+++ b/Controle Transferencia.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,7 +961,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>45856</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -1068,6 +1068,117 @@
       <c r="W7" t="inlineStr">
         <is>
           <t>2025-07-18 13:43:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>asd5678</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>solo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:52:17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:52:18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:52:19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:52:20</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:52:21</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:52:22</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:52:22</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0:00:05</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:52:24</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:52:25</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:52:26</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:52:27</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0:00:04</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:52:23</t>
         </is>
       </c>
     </row>

--- a/Controle Transferencia.xlsx
+++ b/Controle Transferencia.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,7 +1072,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>45856</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -1181,6 +1181,41 @@
           <t>2025-07-18 13:52:23</t>
         </is>
       </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>asd5678</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>solo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Controle Transferencia.xlsx
+++ b/Controle Transferencia.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,7 +1183,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>45856</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -1217,6 +1217,117 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>QWE1234</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SAMUEL</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:54:39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:54:40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:54:40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:54:42</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:54:42</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:54:44</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:54:45</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0:00:02</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0:00:06</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:54:47</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:54:48</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:54:49</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:54:50</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0:00:04</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:54:46</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Controle Transferencia.xlsx
+++ b/Controle Transferencia.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,7 +1218,7 @@
       <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="2" t="n">
         <v>45856</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -1325,6 +1325,117 @@
       <c r="W10" t="inlineStr">
         <is>
           <t>2025-07-18 13:54:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GHT5678</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:58:39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:58:40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:58:41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:58:42</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:58:43</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:58:43</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:58:44</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0:00:05</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:58:46</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:58:47</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:58:48</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:58:49</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0:00:04</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:58:45</t>
         </is>
       </c>
     </row>

--- a/Controle Transferencia.xlsx
+++ b/Controle Transferencia.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1329,7 +1329,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="2" t="n">
         <v>45856</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -1436,6 +1436,117 @@
       <c r="W11" t="inlineStr">
         <is>
           <t>2025-07-18 13:58:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>agora</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>agora</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:07:57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:07:57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:07:59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:08:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:08:01</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:08:02</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:08:03</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0:00:00</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0:00:06</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:08:05</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:08:05</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:08:07</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:08:07</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0:00:02</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0:00:03</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:08:04</t>
         </is>
       </c>
     </row>

--- a/Controle Transferencia.xlsx
+++ b/Controle Transferencia.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1440,7 +1440,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="2" t="n">
         <v>45856</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -1547,6 +1547,117 @@
       <c r="W12" t="inlineStr">
         <is>
           <t>2025-07-18 14:08:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>diegonovo</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>diegonovo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:30:11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:30:12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:30:13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:30:14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:30:17</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:30:17</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:30:23</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0:00:12</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:30:26</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:30:26</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:30:28</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:30:32</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0:00:02</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0:00:02</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0:00:08</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:30:24</t>
         </is>
       </c>
     </row>

--- a/Controle Transferencia.xlsx
+++ b/Controle Transferencia.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1662,7 +1662,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="2" t="n">
         <v>45856</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -1771,6 +1771,41 @@
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>diegoarrumou</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>diegoarrumou</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Controle Transferencia.xlsx
+++ b/Controle Transferencia.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,7 +1773,7 @@
       <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="2" t="n">
         <v>45856</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -1807,6 +1807,117 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>diegoarrumou</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>diegoarrumou</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:35:32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:35:32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:35:34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:35:34</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:35:34</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:35:36</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:35:36</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0:00:00</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0:00:00</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0:00:04</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:35:37</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:35:38</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:35:40</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:35:40</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:35:41</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0:00:00</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>0:00:04</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Controle Transferencia.xlsx
+++ b/Controle Transferencia.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1808,7 +1808,7 @@
       <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="2" t="n">
         <v>45856</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1917,6 +1917,117 @@
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>haha</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>haha</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:47:29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:47:31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:47:31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:47:32</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:47:33</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:47:34</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:47:35</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0:00:02</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0:00:06</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:47:37</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:47:38</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:47:38</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:47:40</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>2025-07-18 14:47:41</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0:00:02</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0:00:04</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>0:00:02</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Controle Transferencia.xlsx
+++ b/Controle Transferencia.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1919,7 +1919,7 @@
       <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="2" t="n">
         <v>45856</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -2028,6 +2028,45 @@
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>gtr4567</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>eu</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-07-18 12:03:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
